--- a/Naming/NamenskonventionAzure.xlsx
+++ b/Naming/NamenskonventionAzure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlyaKoni\Desktop\Dev\Public\Naming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491CA5AF-EF95-49D5-BE9E-6C268FA692D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA82558-D1D1-4C26-B535-F3C5C5C737A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konvention" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>EEE</t>
-  </si>
-  <si>
-    <t>Titel</t>
   </si>
   <si>
     <t>Beispiele:</t>
@@ -274,6 +271,9 @@
   <si>
     <t>aacc</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
 </sst>
 </file>
 
@@ -810,6 +810,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -848,37 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,7 +1223,9 @@
   </sheetPr>
   <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1235,16 +1237,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="E2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -1254,7 +1256,7 @@
     <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1266,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1284,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1293,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1302,40 +1304,40 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
-      <c r="B12" s="46" t="s">
-        <v>26</v>
+      <c r="B12" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="L13" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
-      <c r="B15" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="B15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="21" t="s">
         <v>7</v>
       </c>
@@ -1348,36 +1350,36 @@
       <c r="I15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>27</v>
+      <c r="K15" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
-      <c r="B16" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="3" t="str">
         <f>F16&amp;G16&amp;H16&amp;I16&amp;J16</f>
         <v>alyainfp</v>
@@ -1385,24 +1387,24 @@
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="I17" s="16"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="53"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="1" t="str">
         <f>F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17</f>
         <v>alyainft</v>
@@ -1410,28 +1412,28 @@
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="53"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="1" t="str">
         <f t="shared" ref="L18:L26" si="0">F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18</f>
         <v>alyainfpresg001</v>
@@ -1439,28 +1441,28 @@
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
-      <c r="B19" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="B19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="I19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="53"/>
+        <v>50</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="40"/>
       <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>alyainfpserv001</v>
@@ -1468,29 +1470,29 @@
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="40" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="53" t="s">
-        <v>47</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1499,29 +1501,29 @@
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>49</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1530,28 +1532,28 @@
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
-      <c r="B22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="B22" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="I22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="40"/>
       <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>alyainfpstrg001</v>
@@ -1559,28 +1561,28 @@
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="53"/>
+      <c r="J23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="40"/>
       <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>alyainfpaacc001</v>
@@ -1588,16 +1590,16 @@
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="9"/>
       <c r="G24" s="6"/>
       <c r="H24" s="12"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="53"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1605,16 +1607,16 @@
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="9"/>
       <c r="G25" s="6"/>
       <c r="H25" s="12"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="53"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1622,16 +1624,16 @@
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="9"/>
       <c r="G26" s="6"/>
       <c r="H26" s="12"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="53"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1639,16 +1641,16 @@
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
       <c r="H27" s="13"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="54"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="41"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1656,7 +1658,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1677,93 +1679,93 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
         <v>35</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
         <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
         <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
       </c>
       <c r="E33" s="23"/>
       <c r="H33" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="E34" s="23"/>
       <c r="H34" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="E35" s="23"/>
       <c r="H35" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
         <v>55</v>
-      </c>
-      <c r="I36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H37" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
